--- a/Documents/Mappings/m11_mapping.xlsx
+++ b/Documents/Mappings/m11_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_mapping/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/GitHub/DDF-RA/Documents/Mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BF405C-59FC-0440-986B-E279DCC0E769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD321AC9-825D-3444-A8A5-EA911CF0796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62860" yWindow="3380" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">The target class in USDM where the M11 element is mapped. </t>
   </si>
   <si>
-    <t>v3.13</t>
+    <t>v4.0.0</t>
   </si>
 </sst>
 </file>
@@ -4641,7 +4641,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A3:A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
